--- a/BBB.xlsx
+++ b/BBB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="471">
   <si>
     <t xml:space="preserve">PIN</t>
   </si>
@@ -948,20 +948,509 @@
   </si>
   <si>
     <t xml:space="preserve">GPIO2[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC_3.3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYS_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR_BUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_wait0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_crs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_csn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmii2_crs_dv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc1_sdcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart4_rxd_mux2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_csn6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc_dat3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp0_aclkr_mux3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio1[28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_wpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_rxerr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_csn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmii2_rxerr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc2_sdcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart4_txd_mux2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_txd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgmii2_td3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm1A_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio1[18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmii2_txen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmii2_tctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_txen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpmc_a16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm1_tripzone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio1[16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mii2_txd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgmii2_td2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm1B_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio1[19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi0_cs0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc2_sdwp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm0_synci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi0_d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc1_sdwp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2CL_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm0_tripzone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart1_rtsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcan0_rx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi1_cs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart1_ctsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcan0_tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi1_cs0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi0_d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart2_txd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU3_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi0_sclk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart2_rxd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehrpwm0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU2_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmii2_rxdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgmii2_rxdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio1[17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart1_txd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc2_swdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcan1_rx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eQEP0_strobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp1_axr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU4_mux2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart1_rxd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eQEP0B_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp1_fsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU2_mux2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eCAP2_in_PWM2_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi1_d0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc1_sdcd_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi1_d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc2_sdcd_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spi1_sclk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmc0_sdcd_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xdma_event_intr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tclkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clkout2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timer7_mux1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMU3_mux0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eQEP0_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp1_axr0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eCAPO_in_PWM0_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uart3_txd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr1_ecap0_ecap
+_capin_apwm_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xdma_event_intr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio0[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp0_aclkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eQEP0A_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcasp1_aclkx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpio3[18]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -983,11 +1472,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1032,7 +1530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,6 +1540,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,13 +1572,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2508,6 +3018,1189 @@
       </c>
       <c r="J45" s="2" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
